--- a/Files/INFORMATIVO 16° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 16° GRE - MODELO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="39">
   <si>
     <t>PLACA</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>SIMÕES</t>
-  </si>
-  <si>
-    <t>KIQ-8710</t>
   </si>
   <si>
     <t>NNL-9356</t>
@@ -520,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,11 +1680,11 @@
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>33</v>
@@ -1704,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>33</v>
@@ -1767,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>33</v>
@@ -1787,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>33</v>
@@ -1804,10 +1801,10 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>33</v>
@@ -1824,10 +1821,10 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>33</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -1844,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -1855,7 +1852,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -1864,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
@@ -1884,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
@@ -1895,7 +1892,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -1904,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -1914,7 +1911,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1924,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
@@ -1934,7 +1931,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -1944,52 +1941,12 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Files/INFORMATIVO 16° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 16° GRE - MODELO.xlsx
@@ -90,9 +90,6 @@
     <t>NNL-7286</t>
   </si>
   <si>
-    <t>KIQ-8720</t>
-  </si>
-  <si>
     <t>SÃO JULIÃO</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>NHU-2780</t>
+  </si>
+  <si>
+    <t>KZQ-8720</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,8 +1111,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>23</v>
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -1127,12 +1127,12 @@
         <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>23</v>
+      <c r="A31" t="s">
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -1147,92 +1147,92 @@
         <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
@@ -1247,12 +1247,12 @@
         <v>9</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
@@ -1267,12 +1267,12 @@
         <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -1287,12 +1287,12 @@
         <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -1307,12 +1307,12 @@
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -1327,12 +1327,12 @@
         <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
@@ -1347,12 +1347,12 @@
         <v>9</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
@@ -1367,12 +1367,12 @@
         <v>9</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -1387,12 +1387,12 @@
         <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
@@ -1407,12 +1407,12 @@
         <v>9</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
@@ -1427,12 +1427,12 @@
         <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
@@ -1447,12 +1447,12 @@
         <v>9</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>6</v>
@@ -1467,12 +1467,12 @@
         <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -1487,12 +1487,12 @@
         <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -1507,12 +1507,12 @@
         <v>9</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -1527,12 +1527,12 @@
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
@@ -1547,132 +1547,132 @@
         <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
@@ -1687,12 +1687,12 @@
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -1707,12 +1707,12 @@
         <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -1727,12 +1727,12 @@
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -1747,12 +1747,12 @@
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
@@ -1767,12 +1767,12 @@
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
@@ -1787,12 +1787,12 @@
         <v>9</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -1807,12 +1807,12 @@
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
@@ -1827,12 +1827,12 @@
         <v>8</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -1847,12 +1847,12 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -1867,12 +1867,12 @@
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
@@ -1887,12 +1887,12 @@
         <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -1907,12 +1907,12 @@
         <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
@@ -1927,12 +1927,12 @@
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>6</v>
@@ -1947,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Files/INFORMATIVO 16° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 16° GRE - MODELO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="38">
   <si>
     <t>PLACA</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>OUA-7785</t>
-  </si>
-  <si>
-    <t>ETL-0532</t>
   </si>
   <si>
     <t>NQY-7405</t>
@@ -517,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1109,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -1441,13 +1438,13 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>23</v>
+      <c r="F46" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,18 +1458,18 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>23</v>
+      <c r="F47" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -1481,18 +1478,18 @@
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -1501,18 +1498,18 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -1520,19 +1517,19 @@
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>11</v>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
@@ -1541,18 +1538,18 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
@@ -1567,12 +1564,12 @@
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -1587,92 +1584,92 @@
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
@@ -1684,15 +1681,15 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -1704,15 +1701,15 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -1721,18 +1718,18 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -1741,13 +1738,13 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,13 +1758,13 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,18 +1778,18 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -1801,59 +1798,59 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1867,87 +1864,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Files/INFORMATIVO 16° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 16° GRE - MODELO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="37">
   <si>
     <t>PLACA</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>KIQ-8680</t>
-  </si>
-  <si>
-    <t>OQF-8563</t>
   </si>
   <si>
     <t>OUA-7785</t>
@@ -514,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1106,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -1209,7 +1206,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -1318,10 +1315,10 @@
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>23</v>
@@ -1338,10 +1335,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>23</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
@@ -1358,18 +1355,18 @@
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>23</v>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -1378,18 +1375,18 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>23</v>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
@@ -1398,18 +1395,18 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>23</v>
+      <c r="F44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
@@ -1418,18 +1415,18 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>23</v>
+      <c r="F45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
@@ -1437,19 +1434,19 @@
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>11</v>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>6</v>
@@ -1458,18 +1455,18 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -1484,12 +1481,12 @@
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -1504,92 +1501,92 @@
         <v>8</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -1601,15 +1598,15 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
@@ -1621,15 +1618,15 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
@@ -1638,18 +1635,18 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
@@ -1658,13 +1655,13 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,13 +1675,13 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,18 +1695,18 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -1718,59 +1715,59 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
@@ -1784,87 +1781,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Files/INFORMATIVO 16° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 16° GRE - MODELO.xlsx
@@ -57,9 +57,6 @@
     <t>NOITE</t>
   </si>
   <si>
-    <t>JUNHO</t>
-  </si>
-  <si>
     <t>NQR-5086</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>KZQ-8720</t>
+  </si>
+  <si>
+    <t>JULHO</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,13 +546,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -561,18 +561,18 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -581,18 +581,18 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -601,18 +601,18 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -621,58 +621,58 @@
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -681,18 +681,18 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -701,18 +701,18 @@
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -721,18 +721,18 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -741,18 +741,18 @@
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -761,18 +761,18 @@
         <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -781,18 +781,18 @@
         <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -801,18 +801,18 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -821,18 +821,18 @@
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -841,18 +841,18 @@
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
@@ -861,18 +861,18 @@
         <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -881,18 +881,18 @@
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -901,18 +901,18 @@
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
@@ -921,18 +921,18 @@
         <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
@@ -941,18 +941,18 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -961,18 +961,18 @@
         <v>8</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -981,18 +981,18 @@
         <v>9</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -1001,18 +1001,18 @@
         <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1021,18 +1021,18 @@
         <v>9</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
@@ -1041,18 +1041,18 @@
         <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -1061,18 +1061,18 @@
         <v>9</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
@@ -1081,18 +1081,18 @@
         <v>8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
@@ -1101,18 +1101,18 @@
         <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
@@ -1121,18 +1121,18 @@
         <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
@@ -1141,18 +1141,18 @@
         <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -1161,18 +1161,18 @@
         <v>9</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -1181,18 +1181,18 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -1201,18 +1201,18 @@
         <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -1221,18 +1221,18 @@
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
@@ -1241,18 +1241,18 @@
         <v>9</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -1261,18 +1261,18 @@
         <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
@@ -1281,18 +1281,18 @@
         <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
@@ -1301,18 +1301,18 @@
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>10</v>
@@ -1321,18 +1321,18 @@
         <v>9</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
@@ -1341,18 +1341,18 @@
         <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
@@ -1361,18 +1361,18 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -1381,138 +1381,138 @@
         <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -1521,18 +1521,18 @@
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -1541,18 +1541,18 @@
         <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -1561,18 +1561,18 @@
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -1581,18 +1581,18 @@
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
@@ -1601,18 +1601,18 @@
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -1621,18 +1621,18 @@
         <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>7</v>
@@ -1641,18 +1641,18 @@
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>7</v>
@@ -1661,18 +1661,18 @@
         <v>8</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>10</v>
@@ -1681,18 +1681,18 @@
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
@@ -1701,18 +1701,18 @@
         <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -1721,18 +1721,18 @@
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -1741,18 +1741,18 @@
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>10</v>
@@ -1761,18 +1761,18 @@
         <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -1781,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
